--- a/Example.xlsx
+++ b/Example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="12156" windowHeight="5124"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="12150" windowHeight="5130"/>
   </bookViews>
   <sheets>
     <sheet name="ExcelExample" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Difficulty</t>
   </si>
   <si>
     <t>Easy</t>
-  </si>
-  <si>
-    <t>Medium</t>
   </si>
   <si>
     <t>Strength</t>
@@ -449,29 +446,29 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -479,7 +476,7 @@
         <v>0.1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -488,7 +485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -496,16 +493,16 @@
         <v>0.1</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -513,7 +510,7 @@
         <v>0.1</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -522,7 +519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -530,16 +527,16 @@
         <v>0.1</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -547,16 +544,16 @@
         <v>0.1</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -564,16 +561,16 @@
         <v>0.1</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -581,16 +578,16 @@
         <v>0.1</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -598,16 +595,16 @@
         <v>0.1</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -615,16 +612,16 @@
         <v>0.1</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -632,17 +629,22 @@
         <v>0.1</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E11">
+      <formula1>"Easy,Hard"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Example.xlsx
+++ b/Example.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="12150" windowHeight="5130"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="12150" windowHeight="5130"/>
   </bookViews>
   <sheets>
     <sheet name="ExcelExample" sheetId="1" r:id="rId1"/>
+    <sheet name="ExcelExample2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
   <si>
     <t>Difficulty</t>
   </si>
@@ -75,15 +77,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9,1,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaId</t>
+  </si>
+  <si>
+    <t>MetaId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,14 +451,14 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -496,7 +501,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -530,7 +535,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -581,7 +586,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -598,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -648,4 +653,193 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D11">
+      <formula1>"Easy,Hard"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Example.xlsx
+++ b/Example.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\KoZaeLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D466A4E-8E8B-494E-863E-D6B0611562C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="12150" windowHeight="5130"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExcelExample" sheetId="1" r:id="rId1"/>
-    <sheet name="ExcelExample2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="AAA@Test" sheetId="3" r:id="rId2"/>
+    <sheet name="BBB@Test" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="20">
   <si>
     <t>Difficulty</t>
   </si>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,11 +448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q33" sqref="A12:Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -646,7 +647,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E11" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Easy,Hard"</formula1>
     </dataValidation>
   </dataValidations>
@@ -656,11 +657,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -749,80 +750,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Hard"</formula1>
     </dataValidation>
   </dataValidations>
@@ -832,14 +763,107 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5333D4B6-90F7-4012-BBAB-9175B6443FB5}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{88C72313-7362-4613-863E-8E94740A8818}">
+      <formula1>"Easy,Hard"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>